--- a/Next.xlsx
+++ b/Next.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\GitHub\cognitiveLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7F34FC-BBDA-4BB2-BD75-73A8803AD056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD5D621-63C1-4CDA-906B-569D530A8266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>Enivromnent</t>
   </si>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t>CyclicBarrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlockingQueue </t>
+  </si>
+  <si>
+    <t>ArrayBlockingQueue</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>ReEntrantLock</t>
   </si>
 </sst>
 </file>
@@ -329,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +378,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -394,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -470,6 +488,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB39DF-7615-411B-98EB-4C67F06EA483}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1078,7 +1099,7 @@
     <col min="1" max="1" width="8.7265625" style="2"/>
     <col min="2" max="2" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="67.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -1176,6 +1197,38 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D13" s="2" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1188,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B8DA3-A3FB-4C46-AA4C-783C6BE00117}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Next.xlsx
+++ b/Next.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\GitHub\cognitiveLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD5D621-63C1-4CDA-906B-569D530A8266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC953B39-5025-4CBC-BFD1-64B4D8681E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="whatIs" sheetId="1" r:id="rId1"/>
-    <sheet name="Thread" sheetId="3" r:id="rId2"/>
-    <sheet name="Learn" sheetId="2" r:id="rId3"/>
+    <sheet name="Learn" sheetId="2" r:id="rId2"/>
+    <sheet name="Thread" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>Enivromnent</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>ReEntrantLock</t>
+  </si>
+  <si>
+    <t>Executor Interface</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,11 +1090,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B8DA3-A3FB-4C46-AA4C-783C6BE00117}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB39DF-7615-411B-98EB-4C67F06EA483}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1231,117 +1343,13 @@
         <v>84</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B8DA3-A3FB-4C46-AA4C-783C6BE00117}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Next.xlsx
+++ b/Next.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\GitHub\cognitiveLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC953B39-5025-4CBC-BFD1-64B4D8681E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF42651-1917-42EF-9701-815507DA5159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="whatIs" sheetId="1" r:id="rId1"/>
     <sheet name="Learn" sheetId="2" r:id="rId2"/>
     <sheet name="Thread" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="181">
   <si>
     <t>Enivromnent</t>
   </si>
@@ -188,10 +189,6 @@
     <t>Threading</t>
   </si>
   <si>
-    <t>Basics
-Executor Framework</t>
-  </si>
-  <si>
     <t>Design Patterns</t>
   </si>
   <si>
@@ -207,44 +204,7 @@
     <t>Hacker Rank</t>
   </si>
   <si>
-    <t>Class Diagram / UML	
-Exception Handling
-IO and Serialization
-Complexity
-Regular Expressions
-Collections &amp; Generics</t>
-  </si>
-  <si>
-    <t>List
-Stack
-Queue
-Tree
-Map</t>
-  </si>
-  <si>
-    <t>Lamda and method references	
-Streams and its APIs	
-Enum	
-Inner Class	
-Annonymous  Class</t>
-  </si>
-  <si>
     <t>Memory</t>
-  </si>
-  <si>
-    <t>stack/heap/Ram/CPU Cache/CPU registers
-Java Memory Management
-Garbage Collection</t>
-  </si>
-  <si>
-    <t>Java Architecture
-Class Loader and Boot Strap
-Java Virtual Machine</t>
-  </si>
-  <si>
-    <t>ANT/Maven
-GitHub
-CI tools</t>
   </si>
   <si>
     <t>Tests</t>
@@ -321,13 +281,354 @@
   </si>
   <si>
     <t>Executor Interface</t>
+  </si>
+  <si>
+    <t>Lambda and method references</t>
+  </si>
+  <si>
+    <t>Streams and its Methods</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Inner Class</t>
+  </si>
+  <si>
+    <t>Anonymous Class</t>
+  </si>
+  <si>
+    <t>Class Diagram / UML</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>IO and Serialization</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Regular Expressions</t>
+  </si>
+  <si>
+    <r>
+      <t>Collections</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; Generics</t>
+    </r>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Basics</t>
+  </si>
+  <si>
+    <t>Executor Framework</t>
+  </si>
+  <si>
+    <t>Java Architecture</t>
+  </si>
+  <si>
+    <t>Class Loader and Boot Strap</t>
+  </si>
+  <si>
+    <t>Java Virtual Machine</t>
+  </si>
+  <si>
+    <t>stack/heap/Ram/CPU Cache/CPU registers</t>
+  </si>
+  <si>
+    <t>Java Memory Management</t>
+  </si>
+  <si>
+    <t>Garbage Collection</t>
+  </si>
+  <si>
+    <t>General Algorithms</t>
+  </si>
+  <si>
+    <t>2 pointer algorithm
+3 pointer algorithm
+Sliding Window algorithm</t>
+  </si>
+  <si>
+    <t>ANT/Maven</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>CI tools</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>[abc]</t>
+  </si>
+  <si>
+    <t>Find one character from the options between the brackets</t>
+  </si>
+  <si>
+    <t>[^abc]</t>
+  </si>
+  <si>
+    <t>Find one character NOT between the brackets</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/7/docs/api/java/util/regex/Pattern.html</t>
+  </si>
+  <si>
+    <t>Summary of regular-expression constructs</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>Matches the beginning of the line.</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Matches the end of the line.</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <r>
+      <t>Matches any single character except newline. Using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> option allows it to match the newline as well.</t>
+    </r>
+  </si>
+  <si>
+    <t>[...]</t>
+  </si>
+  <si>
+    <t>Matches any single character in brackets.</t>
+  </si>
+  <si>
+    <t>[^...]</t>
+  </si>
+  <si>
+    <t>Matches any single character not in brackets.</t>
+  </si>
+  <si>
+    <t>\A</t>
+  </si>
+  <si>
+    <t>Beginning of the entire string.</t>
+  </si>
+  <si>
+    <t>\z</t>
+  </si>
+  <si>
+    <t>End of the entire string.</t>
+  </si>
+  <si>
+    <t>\Z</t>
+  </si>
+  <si>
+    <t>End of the entire string except allowable final line terminator.</t>
+  </si>
+  <si>
+    <t>re*</t>
+  </si>
+  <si>
+    <t>Matches 0 or more occurrences of the preceding expression.</t>
+  </si>
+  <si>
+    <t>re+</t>
+  </si>
+  <si>
+    <t>Matches 1 or more of the previous thing.</t>
+  </si>
+  <si>
+    <t>re?</t>
+  </si>
+  <si>
+    <t>Matches 0 or 1 occurrence of the preceding expression.</t>
+  </si>
+  <si>
+    <t>re{ n}</t>
+  </si>
+  <si>
+    <t>Matches exactly n number of occurrences of the preceding expression.</t>
+  </si>
+  <si>
+    <t>re{ n,}</t>
+  </si>
+  <si>
+    <t>Matches n or more occurrences of the preceding expression.</t>
+  </si>
+  <si>
+    <t>re{ n, m}</t>
+  </si>
+  <si>
+    <t>Matches at least n and at most m occurrences of the preceding expression.</t>
+  </si>
+  <si>
+    <t>a| b</t>
+  </si>
+  <si>
+    <t>Matches either a or b.</t>
+  </si>
+  <si>
+    <t>(re)</t>
+  </si>
+  <si>
+    <t>Groups regular expressions and remembers the matched text.</t>
+  </si>
+  <si>
+    <t>(?: re)</t>
+  </si>
+  <si>
+    <t>Groups regular expressions without remembering the matched text.</t>
+  </si>
+  <si>
+    <t>(?&gt; re)</t>
+  </si>
+  <si>
+    <t>Matches the independent pattern without backtracking.</t>
+  </si>
+  <si>
+    <t>\w</t>
+  </si>
+  <si>
+    <t>Matches the word characters.</t>
+  </si>
+  <si>
+    <t>\W</t>
+  </si>
+  <si>
+    <t>Matches the nonword characters.</t>
+  </si>
+  <si>
+    <t>\s</t>
+  </si>
+  <si>
+    <t>Matches the whitespace. Equivalent to [\t\n\r\f].</t>
+  </si>
+  <si>
+    <t>\S</t>
+  </si>
+  <si>
+    <t>Matches the nonwhitespace.</t>
+  </si>
+  <si>
+    <t>\d</t>
+  </si>
+  <si>
+    <t>Matches the digits. Equivalent to [0-9].</t>
+  </si>
+  <si>
+    <t>\D</t>
+  </si>
+  <si>
+    <t>Matches the nondigits.</t>
+  </si>
+  <si>
+    <t>Matches the beginning of the string.</t>
+  </si>
+  <si>
+    <t>Matches the end of the string. If a newline exists, it matches just before newline.</t>
+  </si>
+  <si>
+    <t>Matches the end of the string.</t>
+  </si>
+  <si>
+    <t>\G</t>
+  </si>
+  <si>
+    <t>Matches the point where the last match finished.</t>
+  </si>
+  <si>
+    <t>\n</t>
+  </si>
+  <si>
+    <t>Back-reference to capture group number "n".</t>
+  </si>
+  <si>
+    <t>\b</t>
+  </si>
+  <si>
+    <t>Matches the word boundaries when outside the brackets. Matches the backspace (0x08) when inside the brackets.</t>
+  </si>
+  <si>
+    <t>\B</t>
+  </si>
+  <si>
+    <t>Matches the nonword boundaries.</t>
+  </si>
+  <si>
+    <t>\n, \t, etc.</t>
+  </si>
+  <si>
+    <t>Matches newlines, carriage returns, tabs, etc.</t>
+  </si>
+  <si>
+    <t>\Q</t>
+  </si>
+  <si>
+    <t>Escape (quote) all characters up to \E.</t>
+  </si>
+  <si>
+    <t>\E</t>
+  </si>
+  <si>
+    <t>Ends quoting begun with \Q.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,8 +644,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +729,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E9EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -411,11 +765,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -438,16 +908,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -494,6 +958,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,7 +1302,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,138 +1312,138 @@
     <col min="3" max="3" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.08984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.08984375" style="23"/>
+    <col min="6" max="16384" width="9.08984375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B1" s="9"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -927,156 +1451,156 @@
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="9"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="30" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="E30" s="1" t="s">
@@ -1091,109 +1615,242 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B8DA3-A3FB-4C46-AA4C-783C6BE00117}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="B1" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="34"/>
+      <c r="B2" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="34"/>
+      <c r="B3" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="34"/>
+      <c r="B4" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="35"/>
+      <c r="B5" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="36"/>
+      <c r="B6" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="37"/>
+      <c r="B7" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="37"/>
+      <c r="B8" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="37"/>
+      <c r="B9" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="37"/>
+      <c r="B10" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="38"/>
+      <c r="B11" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="30"/>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="30"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="34"/>
+      <c r="B15" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="34"/>
+      <c r="B16" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="34"/>
+      <c r="B17" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="35"/>
+      <c r="B18" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="35"/>
+      <c r="B20" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="30"/>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="30"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="B24" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="35"/>
+      <c r="B25" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="35"/>
+      <c r="B28" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
+      <c r="B31" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="35"/>
+      <c r="B32" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="B33" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1203,7 +1860,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1217,139 +1874,468 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="25" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D7" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D6" s="24" t="s">
+      <c r="E7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D7" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D8" s="24" t="s">
+      <c r="E8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD17E6F-F78C-4735-B378-CBB3A88596E0}">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="73.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Next.xlsx
+++ b/Next.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\GitHub\cognitiveLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF42651-1917-42EF-9701-815507DA5159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A779B2-2046-4561-84D3-585B9A7BB2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="whatIs" sheetId="1" r:id="rId1"/>
     <sheet name="Learn" sheetId="2" r:id="rId2"/>
     <sheet name="Thread" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Strings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="183">
   <si>
     <t>Enivromnent</t>
   </si>
@@ -622,6 +622,12 @@
   </si>
   <si>
     <t>Ends quoting begun with \Q.</t>
+  </si>
+  <si>
+    <t>ReadWriteLock</t>
+  </si>
+  <si>
+    <t>ReEntrantReadWriteLock: readLock and writelock</t>
   </si>
 </sst>
 </file>
@@ -686,7 +692,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,6 +744,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E9EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -950,9 +962,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -983,6 +992,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1001,23 +1028,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1617,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B8DA3-A3FB-4C46-AA4C-783C6BE00117}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1628,216 +1643,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="26" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="35"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="25" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="25" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="37"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="25" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="25" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="27" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="29"/>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="26" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="35"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="30" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="35"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="29"/>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="29"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="35"/>
-      <c r="B25" s="31" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="30" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="34"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="25" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="35"/>
-      <c r="B28" s="28" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="27" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
-      <c r="B31" s="26" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="25" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="35"/>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1860,7 +1875,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1896,55 +1911,55 @@
       <c r="C5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="45" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="45" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="45" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1969,10 +1984,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C15" s="2" t="s">
@@ -1985,10 +2000,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C19" s="2" t="s">
@@ -1998,6 +2013,16 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D20" s="2" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C22" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2015,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD17E6F-F78C-4735-B378-CBB3A88596E0}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2026,194 +2051,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="33" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="37" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="35" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="37" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="35" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="37" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="35" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="37" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="35" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="35" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="37" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="35" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="37" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="35" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="37" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="37" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="35" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="37" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="35" t="s">
         <v>155</v>
       </c>
       <c r="C24" t="s">
@@ -2221,10 +2246,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="37" t="s">
         <v>157</v>
       </c>
       <c r="C25" t="s">
@@ -2232,106 +2257,106 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="35" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="37" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="35" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="37" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="35" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="37" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="35" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="37" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="41" t="s">
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="35" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="37" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="35" t="s">
         <v>180</v>
       </c>
     </row>

--- a/Next.xlsx
+++ b/Next.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\GitHub\cognitiveLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A779B2-2046-4561-84D3-585B9A7BB2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D643910F-1D8B-4818-B272-2A41F7A9FA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="187">
   <si>
     <t>Enivromnent</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>ReEntrantLock</t>
-  </si>
-  <si>
-    <t>Executor Interface</t>
   </si>
   <si>
     <t>Lambda and method references</t>
@@ -628,6 +625,21 @@
   </si>
   <si>
     <t>ReEntrantReadWriteLock: readLock and writelock</t>
+  </si>
+  <si>
+    <t>ForkJoinTask</t>
+  </si>
+  <si>
+    <t>RecursiveAction                        Compute()</t>
+  </si>
+  <si>
+    <t>RecursiveTask                        Compute()</t>
+  </si>
+  <si>
+    <t>Runnable : run()</t>
+  </si>
+  <si>
+    <t>Callable : call()</t>
   </si>
 </sst>
 </file>
@@ -897,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1010,6 +1022,12 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1028,10 +1046,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1643,71 +1658,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="41"/>
+      <c r="B2" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="39"/>
-      <c r="B2" s="25" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="41"/>
+      <c r="B3" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="26" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="41"/>
+      <c r="B4" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="26" t="s">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="42"/>
+      <c r="B5" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="40"/>
-      <c r="B5" s="27" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="43"/>
+      <c r="B6" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="41"/>
-      <c r="B6" s="25" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="44"/>
+      <c r="B7" s="25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
-      <c r="B7" s="25" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="44"/>
+      <c r="B8" s="26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
-      <c r="B8" s="26" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="44"/>
+      <c r="B9" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
-      <c r="B9" s="25" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="44"/>
+      <c r="B10" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
-      <c r="B10" s="25" t="s">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="45"/>
+      <c r="B11" s="27" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="43"/>
-      <c r="B11" s="27" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1723,49 +1738,49 @@
       <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="41"/>
+      <c r="B15" s="26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
-      <c r="B15" s="26" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="41"/>
+      <c r="B16" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
-      <c r="B16" s="26" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="41"/>
+      <c r="B17" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
-      <c r="B17" s="25" t="s">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="42"/>
+      <c r="B18" s="30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="40"/>
-      <c r="B18" s="30" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="26" t="s">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="42"/>
+      <c r="B20" s="30" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="40"/>
-      <c r="B20" s="30" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1781,71 +1796,71 @@
       <c r="B22" s="29"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="41"/>
+      <c r="B24" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="39"/>
-      <c r="B24" s="25" t="s">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="42"/>
+      <c r="B25" s="30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="40"/>
-      <c r="B25" s="30" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="41"/>
+      <c r="B27" s="25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
-      <c r="B27" s="25" t="s">
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="42"/>
+      <c r="B28" s="27" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="40"/>
-      <c r="B28" s="27" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="30" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="25" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="41"/>
+      <c r="B31" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="39"/>
-      <c r="B31" s="25" t="s">
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="42"/>
+      <c r="B32" s="30" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="40"/>
-      <c r="B32" s="30" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1872,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB39DF-7615-411B-98EB-4C67F06EA483}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1922,44 +1937,44 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="39" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="39" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="39" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1999,38 +2014,60 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D20" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C22" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D23" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D23" s="2" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C27" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C29" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="D27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2052,312 +2089,312 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>108</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>112</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>110</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>118</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>120</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>122</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>124</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>126</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>128</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>130</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>132</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>134</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>136</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>138</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>140</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>142</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="37" t="s">
         <v>144</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>146</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="37" t="s">
         <v>148</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>150</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="37" t="s">
         <v>152</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>155</v>
-      </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="B25" s="37" t="s">
-        <v>157</v>
-      </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>158</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="37" t="s">
         <v>160</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>162</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="35" t="s">
         <v>171</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="37" t="s">
         <v>173</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>175</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="37" t="s">
         <v>177</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="35" t="s">
         <v>179</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Next.xlsx
+++ b/Next.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\GitHub\cognitiveLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D643910F-1D8B-4818-B272-2A41F7A9FA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DAEB9B-FB9C-45BB-8AC5-0B55060B9BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1890,7 +1890,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Next.xlsx
+++ b/Next.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\GitHub\cognitiveLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DAEB9B-FB9C-45BB-8AC5-0B55060B9BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B7F82D-99E5-4AB1-B565-86FD28EF7DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="whatIs" sheetId="1" r:id="rId1"/>
     <sheet name="Learn" sheetId="2" r:id="rId2"/>
     <sheet name="Thread" sheetId="3" r:id="rId3"/>
-    <sheet name="Strings" sheetId="4" r:id="rId4"/>
+    <sheet name="RegExp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1890,7 +1890,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2077,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD17E6F-F78C-4735-B378-CBB3A88596E0}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Next.xlsx
+++ b/Next.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\GitHub\cognitiveLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B7F82D-99E5-4AB1-B565-86FD28EF7DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0855B1-703E-4E1A-9E1D-5246A9E94511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="189">
   <si>
     <t>Enivromnent</t>
   </si>
@@ -640,6 +640,12 @@
   </si>
   <si>
     <t>Callable : call()</t>
+  </si>
+  <si>
+    <t>Main waits</t>
+  </si>
+  <si>
+    <t>each party waits</t>
   </si>
 </sst>
 </file>
@@ -1887,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB39DF-7615-411B-98EB-4C67F06EA483}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1899,30 +1905,32 @@
     <col min="2" max="2" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="2"/>
+    <col min="5" max="7" width="8.7265625" style="2"/>
+    <col min="8" max="8" width="18.6328125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D4" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>60</v>
       </c>
@@ -1936,7 +1944,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D6" s="38" t="s">
         <v>57</v>
       </c>
@@ -1949,8 +1957,11 @@
       <c r="G6" s="39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D7" s="38" t="s">
         <v>73</v>
       </c>
@@ -1963,8 +1974,11 @@
       <c r="G7" s="39" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D8" s="38" t="s">
         <v>64</v>
       </c>
@@ -1977,39 +1991,42 @@
       <c r="G8" s="39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C9" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D16" s="2" t="s">
         <v>75</v>
       </c>
@@ -2223,7 +2240,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="34" t="s">
         <v>141</v>
       </c>

--- a/Next.xlsx
+++ b/Next.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\GitHub\cognitiveLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0855B1-703E-4E1A-9E1D-5246A9E94511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D94B800-E928-4A1B-81D2-1D99E171E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1653,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B8DA3-A3FB-4C46-AA4C-783C6BE00117}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
